--- a/PCB/CE/PickAndPlace.xlsx
+++ b/PCB/CE/PickAndPlace.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-12-29" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB1_2025-01-12" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="113">
   <si>
     <t>Designator</t>
   </si>
@@ -286,34 +286,70 @@
     <t>No</t>
   </si>
   <si>
-    <t>3.3V</t>
-  </si>
-  <si>
-    <t>66.174mm</t>
-  </si>
-  <si>
-    <t>-41.351mm</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>BSMD0603-075-6V</t>
+  </si>
+  <si>
+    <t>F0603</t>
+  </si>
+  <si>
+    <t>59.69mm</t>
+  </si>
+  <si>
+    <t>-40.767mm</t>
+  </si>
+  <si>
+    <t>60.443mm</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>64.509mm</t>
-  </si>
-  <si>
-    <t>-43.088mm</t>
-  </si>
-  <si>
-    <t>VOUT</t>
-  </si>
-  <si>
-    <t>65.398mm</t>
-  </si>
-  <si>
-    <t>-42.191mm</t>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>WNM2020-3/TR-VB</t>
+  </si>
+  <si>
+    <t>SOT-23-3_L2.9-W1.3-P0.95-LS2.4-BR</t>
+  </si>
+  <si>
+    <t>55.753mm</t>
+  </si>
+  <si>
+    <t>56.703mm</t>
+  </si>
+  <si>
+    <t>-41.767mm</t>
+  </si>
+  <si>
+    <t>VSEL</t>
+  </si>
+  <si>
+    <t>SK-3293S</t>
+  </si>
+  <si>
+    <t>SW-SMD_SK-3293S</t>
+  </si>
+  <si>
+    <t>64.914mm</t>
+  </si>
+  <si>
+    <t>-42.427mm</t>
+  </si>
+  <si>
+    <t>64.643mm</t>
+  </si>
+  <si>
+    <t>-42.164mm</t>
+  </si>
+  <si>
+    <t>64.281mm</t>
+  </si>
+  <si>
+    <t>-40.417mm</t>
   </si>
 </sst>
 </file>
@@ -1364,131 +1400,131 @@
         <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L16">
-        <v>226.472</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s">
         <v>20</v>
       </c>
       <c r="N16" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
         <v>95</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
         <v>97</v>
       </c>
-      <c r="F17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>94</v>
-      </c>
       <c r="L17">
-        <v>226.472</v>
+        <v>270</v>
       </c>
       <c r="M17" t="s">
         <v>20</v>
       </c>
       <c r="N17" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L18">
-        <v>226.472</v>
+        <v>225.8</v>
       </c>
       <c r="M18" t="s">
         <v>20</v>
       </c>
       <c r="N18" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
